--- a/techniqo/data_new_ticker/PRSMJOHNSN.xlsx
+++ b/techniqo/data_new_ticker/PRSMJOHNSN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1305"/>
+  <dimension ref="A1:G1307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46061,6 +46061,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1306" t="n">
+        <v>56.85</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>61.35</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>59.55</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>1381358</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1307" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>625559</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/PRSMJOHNSN.xlsx
+++ b/techniqo/data_new_ticker/PRSMJOHNSN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1307"/>
+  <dimension ref="A1:G1309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46111,6 +46111,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1308" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>59.55</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>471472</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1309" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>58</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>631312</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
